--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N2">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O2">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P2">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q2">
-        <v>5.341415202310555</v>
+        <v>9.158605785486666</v>
       </c>
       <c r="R2">
-        <v>48.072736820795</v>
+        <v>82.42745206938</v>
       </c>
       <c r="S2">
-        <v>0.001360197232727604</v>
+        <v>0.04245527839584567</v>
       </c>
       <c r="T2">
-        <v>0.001401811417456727</v>
+        <v>0.04385436256912765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.1703</v>
       </c>
       <c r="O3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P3">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q3">
-        <v>8.612983334944445</v>
+        <v>8.218865613833332</v>
       </c>
       <c r="R3">
-        <v>77.51685001450001</v>
+        <v>73.9697905245</v>
       </c>
       <c r="S3">
-        <v>0.002193305641668271</v>
+        <v>0.03809905523898424</v>
       </c>
       <c r="T3">
-        <v>0.002260408135294714</v>
+        <v>0.03935458310774213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N4">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P4">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q4">
-        <v>37.73341424242722</v>
+        <v>35.04436462533499</v>
       </c>
       <c r="R4">
-        <v>339.600728181845</v>
+        <v>315.3992816280149</v>
       </c>
       <c r="S4">
-        <v>0.009608855273357534</v>
+        <v>0.1624502998842704</v>
       </c>
       <c r="T4">
-        <v>0.009902830785702204</v>
+        <v>0.1678037365381032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.649330666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N5">
-        <v>19.947992</v>
+        <v>0.189772</v>
       </c>
       <c r="O5">
-        <v>0.951263872921625</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P5">
-        <v>0.9512638729216248</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q5">
-        <v>1008.876821266031</v>
+        <v>5.202844249137333</v>
       </c>
       <c r="R5">
-        <v>9079.89139139428</v>
+        <v>46.825598242236</v>
       </c>
       <c r="S5">
-        <v>0.2569115877484059</v>
+        <v>0.02411810336867913</v>
       </c>
       <c r="T5">
-        <v>0.2647715995278559</v>
+        <v>0.0249128986918444</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H6">
         <v>246.746613</v>
       </c>
       <c r="I6">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J6">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03520433333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N6">
-        <v>0.105613</v>
+        <v>0.1703</v>
       </c>
       <c r="O6">
-        <v>0.005036388194404308</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P6">
-        <v>0.005036388194404307</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q6">
-        <v>2.895516670974333</v>
+        <v>4.668994243766666</v>
       </c>
       <c r="R6">
-        <v>26.059650038769</v>
+        <v>42.0209481939</v>
       </c>
       <c r="S6">
-        <v>0.0007373464922689878</v>
+        <v>0.02164340895224825</v>
       </c>
       <c r="T6">
-        <v>0.0007599050392211244</v>
+        <v>0.02235665244198881</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.05676666666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N7">
-        <v>0.1703</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P7">
-        <v>0.008121130064547486</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q7">
-        <v>4.668994243766667</v>
+        <v>19.908092478937</v>
       </c>
       <c r="R7">
-        <v>42.0209481939</v>
+        <v>179.172832310433</v>
       </c>
       <c r="S7">
-        <v>0.001188964499004939</v>
+        <v>0.09228518273631529</v>
       </c>
       <c r="T7">
-        <v>0.001225339950378812</v>
+        <v>0.09532637675207399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H8">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,33 +930,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2486943333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N8">
-        <v>0.7460829999999999</v>
+        <v>0.189772</v>
       </c>
       <c r="O8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P8">
-        <v>0.03557860881942326</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q8">
-        <v>20.45482814076433</v>
+        <v>10.36528909691244</v>
       </c>
       <c r="R8">
-        <v>184.093453266879</v>
+        <v>93.28760187221199</v>
       </c>
       <c r="S8">
-        <v>0.00520884439407576</v>
+        <v>0.04804893283650136</v>
       </c>
       <c r="T8">
-        <v>0.005368204968869496</v>
+        <v>0.04963235200167201</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H9">
-        <v>246.746613</v>
+        <v>491.577271</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.649330666666667</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N9">
-        <v>19.947992</v>
+        <v>0.1703</v>
       </c>
       <c r="O9">
-        <v>0.951263872921625</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P9">
-        <v>0.9512638729216248</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q9">
-        <v>546.8999402390107</v>
+        <v>9.301734361255557</v>
       </c>
       <c r="R9">
-        <v>4922.099462151096</v>
+        <v>83.71560925130001</v>
       </c>
       <c r="S9">
-        <v>0.1392686689044893</v>
+        <v>0.04311875968033315</v>
       </c>
       <c r="T9">
-        <v>0.1435294863619315</v>
+        <v>0.04453970841791595</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H10">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I10">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J10">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.03520433333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N10">
-        <v>0.105613</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O10">
-        <v>0.005036388194404308</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P10">
-        <v>0.005036388194404307</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q10">
-        <v>4.345775024591</v>
+        <v>39.66160123791234</v>
       </c>
       <c r="R10">
-        <v>39.111975221319</v>
+        <v>356.954411141211</v>
       </c>
       <c r="S10">
-        <v>0.0011066563707589</v>
+        <v>0.183853783165219</v>
       </c>
       <c r="T10">
-        <v>0.001140513668462757</v>
+        <v>0.189912556725155</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H11">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I11">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J11">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.05676666666666667</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N11">
-        <v>0.1703</v>
+        <v>0.189772</v>
       </c>
       <c r="O11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P11">
-        <v>0.008121130064547486</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q11">
-        <v>7.0075226221</v>
+        <v>3.607174125478</v>
       </c>
       <c r="R11">
-        <v>63.0677035989</v>
+        <v>21.643044752868</v>
       </c>
       <c r="S11">
-        <v>0.001784473312378596</v>
+        <v>0.01672127672119495</v>
       </c>
       <c r="T11">
-        <v>0.001839067896368889</v>
+        <v>0.01151487651096175</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.2486943333333333</v>
+        <v>0.05676666666666667</v>
       </c>
       <c r="N12">
-        <v>0.7460829999999999</v>
+        <v>0.1703</v>
       </c>
       <c r="O12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P12">
-        <v>0.03557860881942326</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q12">
-        <v>30.699903114881</v>
+        <v>3.23705158595</v>
       </c>
       <c r="R12">
-        <v>276.299128033929</v>
+        <v>19.4223095157</v>
       </c>
       <c r="S12">
-        <v>0.007817763959596947</v>
+        <v>0.01500555100657368</v>
       </c>
       <c r="T12">
-        <v>0.008056942415305871</v>
+        <v>0.01033336566941796</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>57.0238095</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>114.047619</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,33 +1240,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>6.649330666666667</v>
+        <v>0.242047</v>
       </c>
       <c r="N13">
-        <v>19.947992</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O13">
-        <v>0.951263872921625</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P13">
-        <v>0.9512638729216248</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q13">
-        <v>820.8221092511441</v>
+        <v>13.8024420180465</v>
       </c>
       <c r="R13">
-        <v>7387.398983260296</v>
+        <v>82.81465210827899</v>
       </c>
       <c r="S13">
-        <v>0.2090232493220301</v>
+        <v>0.06398206584535772</v>
       </c>
       <c r="T13">
-        <v>0.215418154340713</v>
+        <v>0.04406036688524268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H14">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I14">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J14">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.03520433333333333</v>
+        <v>0.06325733333333333</v>
       </c>
       <c r="N14">
-        <v>0.105613</v>
+        <v>0.189772</v>
       </c>
       <c r="O14">
-        <v>0.005036388194404308</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="P14">
-        <v>0.005036388194404307</v>
+        <v>0.1747097484563341</v>
       </c>
       <c r="Q14">
-        <v>1.7613542066875</v>
+        <v>9.35510383231111</v>
       </c>
       <c r="R14">
-        <v>10.568125240125</v>
+        <v>84.1959344908</v>
       </c>
       <c r="S14">
-        <v>0.0004485307782763465</v>
+        <v>0.04336615713411298</v>
       </c>
       <c r="T14">
-        <v>0.0003081688208837627</v>
+        <v>0.04479525868272828</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.0323125</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H15">
-        <v>100.064625</v>
+        <v>443.6689</v>
       </c>
       <c r="I15">
-        <v>0.08905802352064279</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J15">
-        <v>0.06118845668531954</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>0.1703</v>
       </c>
       <c r="O15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="P15">
-        <v>0.008121130064547486</v>
+        <v>0.1567832460116018</v>
       </c>
       <c r="Q15">
-        <v>2.84016760625</v>
+        <v>8.395201518888889</v>
       </c>
       <c r="R15">
-        <v>17.0410056375</v>
+        <v>75.55681367000001</v>
       </c>
       <c r="S15">
-        <v>0.0007232517923026694</v>
+        <v>0.03891647113346247</v>
       </c>
       <c r="T15">
-        <v>0.0004969194151904101</v>
+        <v>0.04019893637453695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,362 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H16">
+        <v>443.6689</v>
+      </c>
+      <c r="I16">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J16">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>50.0323125</v>
-      </c>
-      <c r="H16">
-        <v>100.064625</v>
-      </c>
-      <c r="I16">
-        <v>0.08905802352064279</v>
-      </c>
-      <c r="J16">
-        <v>0.06118845668531954</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2486943333333333</v>
+        <v>0.242047</v>
       </c>
       <c r="N16">
-        <v>0.7460829999999999</v>
+        <v>0.7261409999999999</v>
       </c>
       <c r="O16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320641</v>
       </c>
       <c r="P16">
-        <v>0.03557860881942326</v>
+        <v>0.6685070055320642</v>
       </c>
       <c r="Q16">
-        <v>12.4427526023125</v>
+        <v>35.79624207943333</v>
       </c>
       <c r="R16">
-        <v>74.656515613875</v>
+        <v>322.1661787149</v>
       </c>
       <c r="S16">
-        <v>0.003168560581071946</v>
+        <v>0.1659356739009017</v>
       </c>
       <c r="T16">
-        <v>0.002177000164671208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>50.0323125</v>
-      </c>
-      <c r="H17">
-        <v>100.064625</v>
-      </c>
-      <c r="I17">
-        <v>0.08905802352064279</v>
-      </c>
-      <c r="J17">
-        <v>0.06118845668531954</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N17">
-        <v>19.947992</v>
-      </c>
-      <c r="O17">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P17">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q17">
-        <v>332.6813898305001</v>
-      </c>
-      <c r="R17">
-        <v>1996.088338983</v>
-      </c>
-      <c r="S17">
-        <v>0.08471768036899183</v>
-      </c>
-      <c r="T17">
-        <v>0.05820636828457415</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H18">
-        <v>463.02893</v>
-      </c>
-      <c r="I18">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J18">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.03520433333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.105613</v>
-      </c>
-      <c r="O18">
-        <v>0.005036388194404308</v>
-      </c>
-      <c r="P18">
-        <v>0.005036388194404307</v>
-      </c>
-      <c r="Q18">
-        <v>5.433541598232221</v>
-      </c>
-      <c r="R18">
-        <v>48.90187438409</v>
-      </c>
-      <c r="S18">
-        <v>0.001383657320372469</v>
-      </c>
-      <c r="T18">
-        <v>0.001425989248379937</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H19">
-        <v>463.02893</v>
-      </c>
-      <c r="I19">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J19">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.05676666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.1703</v>
-      </c>
-      <c r="O19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="P19">
-        <v>0.008121130064547486</v>
-      </c>
-      <c r="Q19">
-        <v>8.761536308777778</v>
-      </c>
-      <c r="R19">
-        <v>78.853826779</v>
-      </c>
-      <c r="S19">
-        <v>0.002231134819193011</v>
-      </c>
-      <c r="T19">
-        <v>0.002299394667314661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H20">
-        <v>463.02893</v>
-      </c>
-      <c r="I20">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J20">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M20">
-        <v>0.2486943333333333</v>
-      </c>
-      <c r="N20">
-        <v>0.7460829999999999</v>
-      </c>
-      <c r="O20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="P20">
-        <v>0.03557860881942326</v>
-      </c>
-      <c r="Q20">
-        <v>38.38422368679888</v>
-      </c>
-      <c r="R20">
-        <v>345.45801318119</v>
-      </c>
-      <c r="S20">
-        <v>0.009774584611321075</v>
-      </c>
-      <c r="T20">
-        <v>0.01007363048487448</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>154.3429766666667</v>
-      </c>
-      <c r="H21">
-        <v>463.02893</v>
-      </c>
-      <c r="I21">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="J21">
-        <v>0.2831372788071194</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>6.649330666666667</v>
-      </c>
-      <c r="N21">
-        <v>19.947992</v>
-      </c>
-      <c r="O21">
-        <v>0.951263872921625</v>
-      </c>
-      <c r="P21">
-        <v>0.9512638729216248</v>
-      </c>
-      <c r="Q21">
-        <v>1026.277487934284</v>
-      </c>
-      <c r="R21">
-        <v>9236.49739140856</v>
-      </c>
-      <c r="S21">
-        <v>0.2613426865777078</v>
-      </c>
-      <c r="T21">
-        <v>0.2693382644065503</v>
+        <v>0.1714039686314894</v>
       </c>
     </row>
   </sheetData>
